--- a/Code/Results/Cases/Case_1_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.215365217774777</v>
+        <v>7.856443890422462</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.526016857272115</v>
+        <v>7.539948643108398</v>
       </c>
       <c r="E2">
-        <v>8.155633500550463</v>
+        <v>12.91172326816818</v>
       </c>
       <c r="F2">
-        <v>31.2521335749254</v>
+        <v>40.44503893972541</v>
       </c>
       <c r="G2">
-        <v>40.8733469555138</v>
+        <v>47.67543407820811</v>
       </c>
       <c r="H2">
-        <v>12.91841602761293</v>
+        <v>18.88094980744684</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.133341636694826</v>
+        <v>10.28388871155429</v>
       </c>
       <c r="K2">
-        <v>15.48613151258217</v>
+        <v>12.5791833399799</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.66119699387156</v>
+        <v>16.32042164378778</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.86350467125111</v>
+        <v>7.788370333197111</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.39686075287517</v>
+        <v>7.534250498574903</v>
       </c>
       <c r="E3">
-        <v>8.039468196073793</v>
+        <v>12.92320591715899</v>
       </c>
       <c r="F3">
-        <v>30.55924268734829</v>
+        <v>40.43293257620269</v>
       </c>
       <c r="G3">
-        <v>39.71937572104536</v>
+        <v>47.58024016031895</v>
       </c>
       <c r="H3">
-        <v>12.82545449132173</v>
+        <v>18.91472696884147</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.152978509992217</v>
+        <v>10.30602710266872</v>
       </c>
       <c r="K3">
-        <v>14.49260517568783</v>
+        <v>12.32481071260331</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.04042934664926</v>
+        <v>16.23887285971704</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.641919868192699</v>
+        <v>7.748163425617929</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.317271079799498</v>
+        <v>7.531654661964176</v>
       </c>
       <c r="E4">
-        <v>7.971695703206218</v>
+        <v>12.932183569048</v>
       </c>
       <c r="F4">
-        <v>30.15431465107732</v>
+        <v>40.43526633481816</v>
       </c>
       <c r="G4">
-        <v>39.03709798583902</v>
+        <v>47.53552390375134</v>
       </c>
       <c r="H4">
-        <v>12.77790780895272</v>
+        <v>18.93900352049577</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.167615880811075</v>
+        <v>10.3207629537522</v>
       </c>
       <c r="K4">
-        <v>13.84993231527713</v>
+        <v>12.16879417544929</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.64947236567459</v>
+        <v>16.19174954099896</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.550353192288153</v>
+        <v>7.732196216424433</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.284805769102984</v>
+        <v>7.530825159981072</v>
       </c>
       <c r="E5">
-        <v>7.944975674179306</v>
+        <v>12.93632694527289</v>
       </c>
       <c r="F5">
-        <v>29.99448626001863</v>
+        <v>40.43867186751931</v>
       </c>
       <c r="G5">
-        <v>38.765818906191</v>
+        <v>47.52076074962796</v>
       </c>
       <c r="H5">
-        <v>12.76084934498822</v>
+        <v>18.94978407603123</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.174212314104515</v>
+        <v>10.32705553062999</v>
       </c>
       <c r="K5">
-        <v>13.57979663057108</v>
+        <v>12.10535161984556</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.48788155429095</v>
+        <v>16.17330287596278</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.535075988073018</v>
+        <v>7.729570580844615</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.279414235382735</v>
+        <v>7.530701248131333</v>
       </c>
       <c r="E6">
-        <v>7.940593154977821</v>
+        <v>12.93704424349481</v>
       </c>
       <c r="F6">
-        <v>29.96826043310251</v>
+        <v>40.43938552432106</v>
       </c>
       <c r="G6">
-        <v>38.7211853438877</v>
+        <v>47.51851835324645</v>
       </c>
       <c r="H6">
-        <v>12.75815438549099</v>
+        <v>18.95162773587731</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.175345303509475</v>
+        <v>10.32811778529027</v>
       </c>
       <c r="K6">
-        <v>13.53444235622599</v>
+        <v>12.09482796115275</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.46091855632338</v>
+        <v>16.17028593417796</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.640689927610639</v>
+        <v>7.747946373563626</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.316833315008881</v>
+        <v>7.531642548882905</v>
       </c>
       <c r="E7">
-        <v>7.971331707762013</v>
+        <v>12.93223748437929</v>
       </c>
       <c r="F7">
-        <v>30.15213813818153</v>
+        <v>40.43530232810082</v>
       </c>
       <c r="G7">
-        <v>39.03341188162894</v>
+        <v>47.53531079233225</v>
       </c>
       <c r="H7">
-        <v>12.77766847699147</v>
+        <v>18.9391453192756</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.167702307561948</v>
+        <v>10.32084665286468</v>
       </c>
       <c r="K7">
-        <v>13.84632257344398</v>
+        <v>12.16793789452293</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.6473020179655</v>
+        <v>16.19149768061122</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.09526222501728</v>
+        <v>7.832652731690819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.481566809232357</v>
+        <v>7.537797335891697</v>
       </c>
       <c r="E8">
-        <v>8.114845106410742</v>
+        <v>12.9152826810709</v>
       </c>
       <c r="F8">
-        <v>31.00898646351193</v>
+        <v>40.43883705393478</v>
       </c>
       <c r="G8">
-        <v>40.47009842572582</v>
+        <v>47.63976547377515</v>
       </c>
       <c r="H8">
-        <v>12.88433709700158</v>
+        <v>18.89186097938398</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.139566283339335</v>
+        <v>10.29128498436454</v>
       </c>
       <c r="K8">
-        <v>15.1503150201793</v>
+        <v>12.49149564477929</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.449295865518</v>
+        <v>16.2917011758748</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.93823328302529</v>
+        <v>8.010578822739857</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.800712842689146</v>
+        <v>7.556971179373716</v>
       </c>
       <c r="E9">
-        <v>8.424246121425091</v>
+        <v>12.89731110931503</v>
       </c>
       <c r="F9">
-        <v>32.85057396855068</v>
+        <v>40.52326891393871</v>
       </c>
       <c r="G9">
-        <v>43.48926900566587</v>
+        <v>47.95314586734551</v>
       </c>
       <c r="H9">
-        <v>13.17263342931788</v>
+        <v>18.82727834298449</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.10568148873975</v>
+        <v>10.24237179803418</v>
       </c>
       <c r="K9">
-        <v>17.45057653769008</v>
+        <v>13.12336615495061</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.26458966472158</v>
+        <v>16.51087997724725</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.5419406074954</v>
+        <v>8.147388468622816</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.030905129044859</v>
+        <v>7.575305900899536</v>
       </c>
       <c r="E10">
-        <v>8.668318607756499</v>
+        <v>12.89339608473489</v>
       </c>
       <c r="F10">
-        <v>34.30015040022795</v>
+        <v>40.63245616131218</v>
       </c>
       <c r="G10">
-        <v>45.82276044551986</v>
+        <v>48.24874989096435</v>
       </c>
       <c r="H10">
-        <v>13.43738001068854</v>
+        <v>18.7970807500358</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.09496218677992</v>
+        <v>10.21194271131976</v>
       </c>
       <c r="K10">
-        <v>18.98781111268057</v>
+        <v>13.5808970477542</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.54377073338952</v>
+        <v>16.6847262736816</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.853836950834525</v>
+        <v>8.21070239706331</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.134369463192925</v>
+        <v>7.584549772283718</v>
       </c>
       <c r="E11">
-        <v>8.782939252076636</v>
+        <v>12.89362464766937</v>
       </c>
       <c r="F11">
-        <v>34.98034518830153</v>
+        <v>40.69231334081234</v>
       </c>
       <c r="G11">
-        <v>46.90824761884627</v>
+        <v>48.39716946127755</v>
       </c>
       <c r="H11">
-        <v>13.57031357956118</v>
+        <v>18.78710584823202</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.093446665745882</v>
+        <v>10.19929263910773</v>
       </c>
       <c r="K11">
-        <v>19.6550105245015</v>
+        <v>13.78657775134347</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.09895389294558</v>
+        <v>16.76636450645819</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.969631835189016</v>
+        <v>8.234811863677011</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.173347013242261</v>
+        <v>7.588178276354866</v>
       </c>
       <c r="E12">
-        <v>8.826856364292219</v>
+        <v>12.89399931701362</v>
       </c>
       <c r="F12">
-        <v>35.24090420314855</v>
+        <v>40.71643704082742</v>
       </c>
       <c r="G12">
-        <v>47.32269561729638</v>
+        <v>48.4553505630797</v>
       </c>
       <c r="H12">
-        <v>13.62253192420497</v>
+        <v>18.78387062076109</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.093381348175253</v>
+        <v>10.1946736036676</v>
       </c>
       <c r="K12">
-        <v>19.90314458581028</v>
+        <v>13.864033088462</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.30543157750069</v>
+        <v>16.79762556749236</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.94479560373907</v>
+        <v>8.229613843903611</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.164961799213541</v>
+        <v>7.58739114826392</v>
       </c>
       <c r="E13">
-        <v>8.817375256036987</v>
+        <v>12.89390582597771</v>
       </c>
       <c r="F13">
-        <v>35.18465524565675</v>
+        <v>40.71117690944565</v>
       </c>
       <c r="G13">
-        <v>47.2332859645033</v>
+        <v>48.4427327386183</v>
       </c>
       <c r="H13">
-        <v>13.61120085920232</v>
+        <v>18.78454326230905</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.09337237484981</v>
+        <v>10.19566078101488</v>
       </c>
       <c r="K13">
-        <v>19.84990386013184</v>
+        <v>13.84737209032145</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.26112862339948</v>
+        <v>16.79087786989924</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.863409607437188</v>
+        <v>8.212683336498197</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.13758033308926</v>
+        <v>7.584845736036601</v>
       </c>
       <c r="E14">
-        <v>8.786542075379298</v>
+        <v>12.89364970293303</v>
       </c>
       <c r="F14">
-        <v>35.00172166780223</v>
+        <v>40.69426886106538</v>
       </c>
       <c r="G14">
-        <v>46.9422765167872</v>
+        <v>48.40191658908085</v>
       </c>
       <c r="H14">
-        <v>13.57457147345286</v>
+        <v>18.78682881526847</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.093430948261743</v>
+        <v>10.1989091967375</v>
       </c>
       <c r="K14">
-        <v>19.67551466186102</v>
+        <v>13.79295913062488</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.11601574133524</v>
+        <v>16.76892955151684</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.813258207932288</v>
+        <v>8.202329712823209</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.120781482336755</v>
+        <v>7.583303217336744</v>
       </c>
       <c r="E15">
-        <v>8.767722569896257</v>
+        <v>12.89353031430311</v>
       </c>
       <c r="F15">
-        <v>34.89005846798614</v>
+        <v>40.68410168633289</v>
       </c>
       <c r="G15">
-        <v>46.76446667721002</v>
+        <v>48.37717220331567</v>
       </c>
       <c r="H15">
-        <v>13.55238212359687</v>
+        <v>18.78829940147699</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.093533838468607</v>
+        <v>10.20092124465854</v>
       </c>
       <c r="K15">
-        <v>19.56811064321573</v>
+        <v>13.75957117188508</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.02664314044706</v>
+        <v>16.75553005823253</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.521231599550182</v>
+        <v>8.143270643508561</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.024116316422269</v>
+        <v>7.574719813371759</v>
       </c>
       <c r="E16">
-        <v>8.660899780023922</v>
+        <v>12.89342151450974</v>
       </c>
       <c r="F16">
-        <v>34.2561153198903</v>
+        <v>40.62874871859596</v>
       </c>
       <c r="G16">
-        <v>45.75229832273047</v>
+        <v>48.23932869063096</v>
       </c>
       <c r="H16">
-        <v>13.42895096268854</v>
+        <v>18.79780843250922</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.095130981009982</v>
+        <v>10.21279339994054</v>
       </c>
       <c r="K16">
-        <v>18.94357012085721</v>
+        <v>13.56739913470093</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.50695752365497</v>
+        <v>16.67944065399792</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.356103567212966</v>
+        <v>8.107300971289479</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.964477733756067</v>
+        <v>7.569684247652584</v>
       </c>
       <c r="E17">
-        <v>8.596283953524095</v>
+        <v>12.89386889071879</v>
       </c>
       <c r="F17">
-        <v>33.87252349411205</v>
+        <v>40.59739566263209</v>
       </c>
       <c r="G17">
-        <v>45.137455004676</v>
+        <v>48.15831986846549</v>
       </c>
       <c r="H17">
-        <v>13.35648898773334</v>
+        <v>18.80460630841523</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.09698901988602</v>
+        <v>10.22038182825857</v>
       </c>
       <c r="K17">
-        <v>18.55227865631048</v>
+        <v>13.44882211148172</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.18136053663957</v>
+        <v>16.63340187857533</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.268972512285037</v>
+        <v>8.086714962975703</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.930058484543075</v>
+        <v>7.566873063480998</v>
       </c>
       <c r="E18">
-        <v>8.559456736699197</v>
+        <v>12.89431541434327</v>
       </c>
       <c r="F18">
-        <v>33.65384613185085</v>
+        <v>40.58032167592975</v>
       </c>
       <c r="G18">
-        <v>44.78606982005932</v>
+        <v>48.11304047142769</v>
       </c>
       <c r="H18">
-        <v>13.31598227396909</v>
+        <v>18.80887032609533</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.098372431907001</v>
+        <v>10.2248587243549</v>
       </c>
       <c r="K18">
-        <v>18.32419071992845</v>
+        <v>13.38039333379507</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.99156494885704</v>
+        <v>16.60716334255458</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.239342035767539</v>
+        <v>8.07976319543627</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.918385418715547</v>
+        <v>7.565935922535163</v>
       </c>
       <c r="E19">
-        <v>8.547045886007055</v>
+        <v>12.8944991195881</v>
       </c>
       <c r="F19">
-        <v>33.58014188516228</v>
+        <v>40.57470571652987</v>
       </c>
       <c r="G19">
-        <v>44.66748666644735</v>
+        <v>48.09793624195085</v>
       </c>
       <c r="H19">
-        <v>13.30246613539332</v>
+        <v>18.8103748235834</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.098894140786234</v>
+        <v>10.22639380585148</v>
       </c>
       <c r="K19">
-        <v>18.2464413648638</v>
+        <v>13.35718811876466</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.92686802639536</v>
+        <v>16.59832157412886</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.372167760023677</v>
+        <v>8.111119518971831</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.970838616552347</v>
+        <v>7.570211493652162</v>
       </c>
       <c r="E20">
-        <v>8.603127459668315</v>
+        <v>12.89380169056673</v>
       </c>
       <c r="F20">
-        <v>33.91315531085985</v>
+        <v>40.60063399948461</v>
       </c>
       <c r="G20">
-        <v>45.20267310656118</v>
+        <v>48.16680751592882</v>
       </c>
       <c r="H20">
-        <v>13.3640808557607</v>
+        <v>18.80384601072535</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.096758478537712</v>
+        <v>10.21956241268992</v>
       </c>
       <c r="K20">
-        <v>18.59424497114945</v>
+        <v>13.46146885673014</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.21628119927187</v>
+        <v>16.63827791438689</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.887377123111907</v>
+        <v>8.217652773551464</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.145628575514019</v>
+        <v>7.585589925171295</v>
       </c>
       <c r="E21">
-        <v>8.795584629190943</v>
+        <v>12.89371712042302</v>
       </c>
       <c r="F21">
-        <v>35.05537262026927</v>
+        <v>40.69919569095469</v>
       </c>
       <c r="G21">
-        <v>47.02766098087007</v>
+        <v>48.41385184348413</v>
       </c>
       <c r="H21">
-        <v>13.58527874490232</v>
+        <v>18.78614277441528</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.093399730908267</v>
+        <v>10.19795041141714</v>
       </c>
       <c r="K21">
-        <v>19.72685884894043</v>
+        <v>13.8089538507108</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.15874019235626</v>
+        <v>16.77536707202201</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.22015524051076</v>
+        <v>8.288048775609369</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.258678385036912</v>
+        <v>7.596386081712712</v>
       </c>
       <c r="E22">
-        <v>8.924355384188527</v>
+        <v>12.89534073910011</v>
       </c>
       <c r="F22">
-        <v>35.81928711997504</v>
+        <v>40.77209960448631</v>
       </c>
       <c r="G22">
-        <v>48.24021432490487</v>
+        <v>48.58682249834733</v>
       </c>
       <c r="H22">
-        <v>13.74083814063528</v>
+        <v>18.777732520767</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.094181993454867</v>
+        <v>10.1848239431476</v>
       </c>
       <c r="K22">
-        <v>20.44079445878026</v>
+        <v>14.0335072142085</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.75283157118512</v>
+        <v>16.8669719715102</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.043764383240102</v>
+        <v>8.250413636710833</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.198456278920743</v>
+        <v>7.590556390873187</v>
       </c>
       <c r="E23">
-        <v>8.855355092438167</v>
+        <v>12.89432087657062</v>
       </c>
       <c r="F23">
-        <v>35.40997338043979</v>
+        <v>40.7324157856072</v>
       </c>
       <c r="G23">
-        <v>47.59124126568009</v>
+        <v>48.49346149028062</v>
       </c>
       <c r="H23">
-        <v>13.65677952757555</v>
+        <v>18.78193180980629</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.093483231611875</v>
+        <v>10.1917385070257</v>
       </c>
       <c r="K23">
-        <v>20.06212495756505</v>
+        <v>13.91391681724752</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.43772392112018</v>
+        <v>16.81790391988574</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.364907629351286</v>
+        <v>8.109392860916955</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.967963271580877</v>
+        <v>7.569972864494027</v>
       </c>
       <c r="E24">
-        <v>8.600032509508415</v>
+        <v>12.89383148198439</v>
       </c>
       <c r="F24">
-        <v>33.89477988895875</v>
+        <v>40.59916698344061</v>
       </c>
       <c r="G24">
-        <v>45.17318146834386</v>
+        <v>48.16296621863778</v>
       </c>
       <c r="H24">
-        <v>13.36064498817525</v>
+        <v>18.80418863292842</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.096861726394791</v>
+        <v>10.2199325147019</v>
       </c>
       <c r="K24">
-        <v>18.57528175425242</v>
+        <v>13.4557520584588</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.20050168967538</v>
+        <v>16.63607274128008</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.715925815226059</v>
+        <v>7.961293427599961</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.715003700026277</v>
+        <v>7.551031833979346</v>
       </c>
       <c r="E25">
-        <v>8.337580910305473</v>
+        <v>12.90053949268274</v>
       </c>
       <c r="F25">
-        <v>32.33530007279957</v>
+        <v>40.49213358781069</v>
       </c>
       <c r="G25">
-        <v>42.65176177580905</v>
+        <v>47.85681595078675</v>
       </c>
       <c r="H25">
-        <v>13.08568212595075</v>
+        <v>18.84172632163013</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.112449732270893</v>
+        <v>10.25463592828633</v>
       </c>
       <c r="K25">
-        <v>16.85543992667384</v>
+        <v>12.95325025499663</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.7693053379302</v>
+        <v>16.44925927146274</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.856443890422462</v>
+        <v>7.215365217774685</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.539948643108398</v>
+        <v>4.526016857272091</v>
       </c>
       <c r="E2">
-        <v>12.91172326816818</v>
+        <v>8.155633500550664</v>
       </c>
       <c r="F2">
-        <v>40.44503893972541</v>
+        <v>31.25213357492541</v>
       </c>
       <c r="G2">
-        <v>47.67543407820811</v>
+        <v>40.87334695551373</v>
       </c>
       <c r="H2">
-        <v>18.88094980744684</v>
+        <v>12.91841602761296</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.28388871155429</v>
+        <v>6.133341636694921</v>
       </c>
       <c r="K2">
-        <v>12.5791833399799</v>
+        <v>15.48613151258212</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.32042164378778</v>
+        <v>12.66119699387163</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.788370333197111</v>
+        <v>6.863504671251102</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.534250498574903</v>
+        <v>4.396860752874951</v>
       </c>
       <c r="E3">
-        <v>12.92320591715899</v>
+        <v>8.039468196073829</v>
       </c>
       <c r="F3">
-        <v>40.43293257620269</v>
+        <v>30.55924268734817</v>
       </c>
       <c r="G3">
-        <v>47.58024016031895</v>
+        <v>39.71937572104535</v>
       </c>
       <c r="H3">
-        <v>18.91472696884147</v>
+        <v>12.82545449132167</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.30602710266872</v>
+        <v>6.152978509992357</v>
       </c>
       <c r="K3">
-        <v>12.32481071260331</v>
+        <v>14.49260517568786</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.23887285971704</v>
+        <v>12.04042934664928</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.748163425617929</v>
+        <v>6.641919868192657</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.531654661964176</v>
+        <v>4.317271079799429</v>
       </c>
       <c r="E4">
-        <v>12.932183569048</v>
+        <v>7.971695703206167</v>
       </c>
       <c r="F4">
-        <v>40.43526633481816</v>
+        <v>30.15431465107702</v>
       </c>
       <c r="G4">
-        <v>47.53552390375134</v>
+        <v>39.03709798583885</v>
       </c>
       <c r="H4">
-        <v>18.93900352049577</v>
+        <v>12.77790780895267</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.3207629537522</v>
+        <v>6.167615880811105</v>
       </c>
       <c r="K4">
-        <v>12.16879417544929</v>
+        <v>13.84993231527717</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.19174954099896</v>
+        <v>11.64947236567454</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.732196216424433</v>
+        <v>6.5503531922881</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.530825159981072</v>
+        <v>4.284805769102991</v>
       </c>
       <c r="E5">
-        <v>12.93632694527289</v>
+        <v>7.944975674179211</v>
       </c>
       <c r="F5">
-        <v>40.43867186751931</v>
+        <v>29.99448626001865</v>
       </c>
       <c r="G5">
-        <v>47.52076074962796</v>
+        <v>38.76581890619099</v>
       </c>
       <c r="H5">
-        <v>18.94978407603123</v>
+        <v>12.76084934498827</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.32705553062999</v>
+        <v>6.174212314104454</v>
       </c>
       <c r="K5">
-        <v>12.10535161984556</v>
+        <v>13.57979663057111</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.17330287596278</v>
+        <v>11.48788155429092</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.729570580844615</v>
+        <v>6.535075988073085</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.530701248131333</v>
+        <v>4.279414235382692</v>
       </c>
       <c r="E6">
-        <v>12.93704424349481</v>
+        <v>7.940593154977774</v>
       </c>
       <c r="F6">
-        <v>40.43938552432106</v>
+        <v>29.96826043310247</v>
       </c>
       <c r="G6">
-        <v>47.51851835324645</v>
+        <v>38.72118534388779</v>
       </c>
       <c r="H6">
-        <v>18.95162773587731</v>
+        <v>12.758154385491</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.32811778529027</v>
+        <v>6.17534530350948</v>
       </c>
       <c r="K6">
-        <v>12.09482796115275</v>
+        <v>13.53444235622594</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.17028593417796</v>
+        <v>11.46091855632335</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.747946373563626</v>
+        <v>6.640689927610639</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.531642548882905</v>
+        <v>4.316833315008842</v>
       </c>
       <c r="E7">
-        <v>12.93223748437929</v>
+        <v>7.971331707762022</v>
       </c>
       <c r="F7">
-        <v>40.43530232810082</v>
+        <v>30.15213813818148</v>
       </c>
       <c r="G7">
-        <v>47.53531079233225</v>
+        <v>39.03341188162886</v>
       </c>
       <c r="H7">
-        <v>18.9391453192756</v>
+        <v>12.77766847699146</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.32084665286468</v>
+        <v>6.167702307561949</v>
       </c>
       <c r="K7">
-        <v>12.16793789452293</v>
+        <v>13.84632257344396</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.19149768061122</v>
+        <v>11.64730201796549</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.832652731690819</v>
+        <v>7.095262225017271</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.537797335891697</v>
+        <v>4.481566809232189</v>
       </c>
       <c r="E8">
-        <v>12.9152826810709</v>
+        <v>8.114845106410703</v>
       </c>
       <c r="F8">
-        <v>40.43883705393478</v>
+        <v>31.00898646351183</v>
       </c>
       <c r="G8">
-        <v>47.63976547377515</v>
+        <v>40.47009842572578</v>
       </c>
       <c r="H8">
-        <v>18.89186097938398</v>
+        <v>12.88433709700156</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.29128498436454</v>
+        <v>6.139566283339366</v>
       </c>
       <c r="K8">
-        <v>12.49149564477929</v>
+        <v>15.1503150201793</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.2917011758748</v>
+        <v>12.44929586551798</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.010578822739857</v>
+        <v>7.93823328302528</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.556971179373716</v>
+        <v>4.800712842689185</v>
       </c>
       <c r="E9">
-        <v>12.89731110931503</v>
+        <v>8.424246121425101</v>
       </c>
       <c r="F9">
-        <v>40.52326891393871</v>
+        <v>32.8505739685505</v>
       </c>
       <c r="G9">
-        <v>47.95314586734551</v>
+        <v>43.4892690056656</v>
       </c>
       <c r="H9">
-        <v>18.82727834298449</v>
+        <v>13.17263342931782</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.24237179803418</v>
+        <v>6.105681488739725</v>
       </c>
       <c r="K9">
-        <v>13.12336615495061</v>
+        <v>17.45057653769014</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.51087997724725</v>
+        <v>14.26458966472162</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.147388468622816</v>
+        <v>8.541940607495361</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.575305900899536</v>
+        <v>5.030905129044831</v>
       </c>
       <c r="E10">
-        <v>12.89339608473489</v>
+        <v>8.668318607756484</v>
       </c>
       <c r="F10">
-        <v>40.63245616131218</v>
+        <v>34.3001504002279</v>
       </c>
       <c r="G10">
-        <v>48.24874989096435</v>
+        <v>45.8227604455198</v>
       </c>
       <c r="H10">
-        <v>18.7970807500358</v>
+        <v>13.43738001068854</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.21194271131976</v>
+        <v>6.094962186779923</v>
       </c>
       <c r="K10">
-        <v>13.5808970477542</v>
+        <v>18.98781111268058</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.6847262736816</v>
+        <v>15.54377073338952</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.21070239706331</v>
+        <v>8.853836950834514</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.584549772283718</v>
+        <v>5.134369463192904</v>
       </c>
       <c r="E11">
-        <v>12.89362464766937</v>
+        <v>8.78293925207659</v>
       </c>
       <c r="F11">
-        <v>40.69231334081234</v>
+        <v>34.98034518830139</v>
       </c>
       <c r="G11">
-        <v>48.39716946127755</v>
+        <v>46.90824761884605</v>
       </c>
       <c r="H11">
-        <v>18.78710584823202</v>
+        <v>13.57031357956113</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.19929263910773</v>
+        <v>6.093446665745883</v>
       </c>
       <c r="K11">
-        <v>13.78657775134347</v>
+        <v>19.65501052450158</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.76636450645819</v>
+        <v>16.09895389294563</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.234811863677011</v>
+        <v>8.969631835188991</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.588178276354866</v>
+        <v>5.17334701324225</v>
       </c>
       <c r="E12">
-        <v>12.89399931701362</v>
+        <v>8.826856364292246</v>
       </c>
       <c r="F12">
-        <v>40.71643704082742</v>
+        <v>35.2409042031485</v>
       </c>
       <c r="G12">
-        <v>48.4553505630797</v>
+        <v>47.32269561729643</v>
       </c>
       <c r="H12">
-        <v>18.78387062076109</v>
+        <v>13.62253192420495</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.1946736036676</v>
+        <v>6.093381348175327</v>
       </c>
       <c r="K12">
-        <v>13.864033088462</v>
+        <v>19.90314458581027</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.79762556749236</v>
+        <v>16.30543157750067</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.229613843903611</v>
+        <v>8.944795603739038</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.58739114826392</v>
+        <v>5.164961799213468</v>
       </c>
       <c r="E13">
-        <v>12.89390582597771</v>
+        <v>8.817375256036945</v>
       </c>
       <c r="F13">
-        <v>40.71117690944565</v>
+        <v>35.18465524565679</v>
       </c>
       <c r="G13">
-        <v>48.4427327386183</v>
+        <v>47.23328596450343</v>
       </c>
       <c r="H13">
-        <v>18.78454326230905</v>
+        <v>13.61120085920232</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.19566078101488</v>
+        <v>6.093372374849819</v>
       </c>
       <c r="K13">
-        <v>13.84737209032145</v>
+        <v>19.84990386013186</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.79087786989924</v>
+        <v>16.2611286233995</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.212683336498197</v>
+        <v>8.86340960743725</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.584845736036601</v>
+        <v>5.137580333089261</v>
       </c>
       <c r="E14">
-        <v>12.89364970293303</v>
+        <v>8.7865420753793</v>
       </c>
       <c r="F14">
-        <v>40.69426886106538</v>
+        <v>35.00172166780213</v>
       </c>
       <c r="G14">
-        <v>48.40191658908085</v>
+        <v>46.94227651678705</v>
       </c>
       <c r="H14">
-        <v>18.78682881526847</v>
+        <v>13.57457147345278</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.1989091967375</v>
+        <v>6.093430948261807</v>
       </c>
       <c r="K14">
-        <v>13.79295913062488</v>
+        <v>19.67551466186106</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.76892955151684</v>
+        <v>16.11601574133525</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.202329712823209</v>
+        <v>8.8132582079323</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.583303217336744</v>
+        <v>5.12078148233671</v>
       </c>
       <c r="E15">
-        <v>12.89353031430311</v>
+        <v>8.767722569896264</v>
       </c>
       <c r="F15">
-        <v>40.68410168633289</v>
+        <v>34.89005846798612</v>
       </c>
       <c r="G15">
-        <v>48.37717220331567</v>
+        <v>46.76446667721005</v>
       </c>
       <c r="H15">
-        <v>18.78829940147699</v>
+        <v>13.55238212359679</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.20092124465854</v>
+        <v>6.093533838468685</v>
       </c>
       <c r="K15">
-        <v>13.75957117188508</v>
+        <v>19.56811064321569</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.75553005823253</v>
+        <v>16.02664314044704</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.143270643508561</v>
+        <v>8.521231599550124</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.574719813371759</v>
+        <v>5.02411631642214</v>
       </c>
       <c r="E16">
-        <v>12.89342151450974</v>
+        <v>8.660899780023831</v>
       </c>
       <c r="F16">
-        <v>40.62874871859596</v>
+        <v>34.25611531989027</v>
       </c>
       <c r="G16">
-        <v>48.23932869063096</v>
+        <v>45.75229832273047</v>
       </c>
       <c r="H16">
-        <v>18.79780843250922</v>
+        <v>13.42895096268857</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.21279339994054</v>
+        <v>6.09513098100994</v>
       </c>
       <c r="K16">
-        <v>13.56739913470093</v>
+        <v>18.9435701208572</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.67944065399792</v>
+        <v>15.50695752365502</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.107300971289479</v>
+        <v>8.356103567213021</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.569684247652584</v>
+        <v>4.964477733756073</v>
       </c>
       <c r="E17">
-        <v>12.89386889071879</v>
+        <v>8.596283953524097</v>
       </c>
       <c r="F17">
-        <v>40.59739566263209</v>
+        <v>33.87252349411204</v>
       </c>
       <c r="G17">
-        <v>48.15831986846549</v>
+        <v>45.13745500467599</v>
       </c>
       <c r="H17">
-        <v>18.80460630841523</v>
+        <v>13.35648898773331</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.22038182825857</v>
+        <v>6.096989019886058</v>
       </c>
       <c r="K17">
-        <v>13.44882211148172</v>
+        <v>18.5522786563105</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.63340187857533</v>
+        <v>15.18136053663958</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.086714962975703</v>
+        <v>8.268972512285023</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.566873063480998</v>
+        <v>4.930058484543154</v>
       </c>
       <c r="E18">
-        <v>12.89431541434327</v>
+        <v>8.559456736699204</v>
       </c>
       <c r="F18">
-        <v>40.58032167592975</v>
+        <v>33.65384613185093</v>
       </c>
       <c r="G18">
-        <v>48.11304047142769</v>
+        <v>44.78606982005942</v>
       </c>
       <c r="H18">
-        <v>18.80887032609533</v>
+        <v>13.31598227396909</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.2248587243549</v>
+        <v>6.098372431906948</v>
       </c>
       <c r="K18">
-        <v>13.38039333379507</v>
+        <v>18.32419071992841</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.60716334255458</v>
+        <v>14.99156494885703</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.07976319543627</v>
+        <v>8.239342035767539</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.565935922535163</v>
+        <v>4.918385418715503</v>
       </c>
       <c r="E19">
-        <v>12.8944991195881</v>
+        <v>8.547045886006988</v>
       </c>
       <c r="F19">
-        <v>40.57470571652987</v>
+        <v>33.58014188516217</v>
       </c>
       <c r="G19">
-        <v>48.09793624195085</v>
+        <v>44.66748666644726</v>
       </c>
       <c r="H19">
-        <v>18.8103748235834</v>
+        <v>13.30246613539329</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.22639380585148</v>
+        <v>6.098894140786182</v>
       </c>
       <c r="K19">
-        <v>13.35718811876466</v>
+        <v>18.24644136486387</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.59832157412886</v>
+        <v>14.92686802639544</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.111119518971831</v>
+        <v>8.372167760023677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.570211493652162</v>
+        <v>4.970838616552275</v>
       </c>
       <c r="E20">
-        <v>12.89380169056673</v>
+        <v>8.603127459668238</v>
       </c>
       <c r="F20">
-        <v>40.60063399948461</v>
+        <v>33.91315531085988</v>
       </c>
       <c r="G20">
-        <v>48.16680751592882</v>
+        <v>45.20267310656127</v>
       </c>
       <c r="H20">
-        <v>18.80384601072535</v>
+        <v>13.36408085576073</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.21956241268992</v>
+        <v>6.096758478537657</v>
       </c>
       <c r="K20">
-        <v>13.46146885673014</v>
+        <v>18.59424497114939</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.63827791438689</v>
+        <v>15.21628119927186</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.217652773551464</v>
+        <v>8.887377123111884</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.585589925171295</v>
+        <v>5.145628575514022</v>
       </c>
       <c r="E21">
-        <v>12.89371712042302</v>
+        <v>8.795584629190943</v>
       </c>
       <c r="F21">
-        <v>40.69919569095469</v>
+        <v>35.05537262026917</v>
       </c>
       <c r="G21">
-        <v>48.41385184348413</v>
+        <v>47.0276609808699</v>
       </c>
       <c r="H21">
-        <v>18.78614277441528</v>
+        <v>13.58527874490236</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.19795041141714</v>
+        <v>6.093399730908303</v>
       </c>
       <c r="K21">
-        <v>13.8089538507108</v>
+        <v>19.72685884894046</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.77536707202201</v>
+        <v>16.15874019235628</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.288048775609369</v>
+        <v>9.220155240510692</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.596386081712712</v>
+        <v>5.258678385036865</v>
       </c>
       <c r="E22">
-        <v>12.89534073910011</v>
+        <v>8.924355384188548</v>
       </c>
       <c r="F22">
-        <v>40.77209960448631</v>
+        <v>35.81928711997499</v>
       </c>
       <c r="G22">
-        <v>48.58682249834733</v>
+        <v>48.24021432490484</v>
       </c>
       <c r="H22">
-        <v>18.777732520767</v>
+        <v>13.74083814063528</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.1848239431476</v>
+        <v>6.09418199345492</v>
       </c>
       <c r="K22">
-        <v>14.0335072142085</v>
+        <v>20.44079445878027</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.8669719715102</v>
+        <v>16.75283157118509</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.250413636710833</v>
+        <v>9.043764383240072</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.590556390873187</v>
+        <v>5.19845627892071</v>
       </c>
       <c r="E23">
-        <v>12.89432087657062</v>
+        <v>8.855355092438176</v>
       </c>
       <c r="F23">
-        <v>40.7324157856072</v>
+        <v>35.40997338043972</v>
       </c>
       <c r="G23">
-        <v>48.49346149028062</v>
+        <v>47.59124126568007</v>
       </c>
       <c r="H23">
-        <v>18.78193180980629</v>
+        <v>13.65677952757555</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.1917385070257</v>
+        <v>6.093483231611952</v>
       </c>
       <c r="K23">
-        <v>13.91391681724752</v>
+        <v>20.06212495756506</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.81790391988574</v>
+        <v>16.43772392112018</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.109392860916955</v>
+        <v>8.364907629351329</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.569972864494027</v>
+        <v>4.967963271580819</v>
       </c>
       <c r="E24">
-        <v>12.89383148198439</v>
+        <v>8.600032509508464</v>
       </c>
       <c r="F24">
-        <v>40.59916698344061</v>
+        <v>33.89477988895875</v>
       </c>
       <c r="G24">
-        <v>48.16296621863778</v>
+        <v>45.17318146834384</v>
       </c>
       <c r="H24">
-        <v>18.80418863292842</v>
+        <v>13.36064498817525</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.2199325147019</v>
+        <v>6.096861726394882</v>
       </c>
       <c r="K24">
-        <v>13.4557520584588</v>
+        <v>18.57528175425239</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.63607274128008</v>
+        <v>15.20050168967535</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.961293427599961</v>
+        <v>7.715925815226051</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.551031833979346</v>
+        <v>4.71500370002631</v>
       </c>
       <c r="E25">
-        <v>12.90053949268274</v>
+        <v>8.337580910305473</v>
       </c>
       <c r="F25">
-        <v>40.49213358781069</v>
+        <v>32.33530007279949</v>
       </c>
       <c r="G25">
-        <v>47.85681595078675</v>
+        <v>42.65176177580901</v>
       </c>
       <c r="H25">
-        <v>18.84172632163013</v>
+        <v>13.08568212595066</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.25463592828633</v>
+        <v>6.112449732270922</v>
       </c>
       <c r="K25">
-        <v>12.95325025499663</v>
+        <v>16.85543992667388</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.44925927146274</v>
+        <v>13.76930533793021</v>
       </c>
       <c r="N25">
         <v>0</v>
